--- a/Oyster/transect/data/field_schedule_Sept2019_Mar2020.xlsx
+++ b/Oyster/transect/data/field_schedule_Sept2019_Mar2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Oyster Project\oyster_project2\project_task_working\t5_postcon_mon\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\Reef_Project\Git\Beck_LC_R\oyster\transect\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="235">
   <si>
     <t>start_date</t>
   </si>
@@ -692,9 +692,6 @@
     <t>Samara</t>
   </si>
   <si>
-    <t>Samantha Hoskins weekends after Nov 16</t>
-  </si>
-  <si>
     <t>Nava</t>
   </si>
   <si>
@@ -714,6 +711,21 @@
   </si>
   <si>
     <t>Samantha W.</t>
+  </si>
+  <si>
+    <t>Tyler C</t>
+  </si>
+  <si>
+    <t>Rod</t>
+  </si>
+  <si>
+    <t>Jamie C</t>
+  </si>
+  <si>
+    <t>Samantha H</t>
+  </si>
+  <si>
+    <t>(Denny)</t>
   </si>
 </sst>
 </file>
@@ -20087,11 +20099,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomLeft" activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20200,7 +20212,7 @@
         <v>220</v>
       </c>
       <c r="P2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -20254,10 +20266,10 @@
         <v>221</v>
       </c>
       <c r="Q3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -20305,7 +20317,7 @@
         <v>219</v>
       </c>
       <c r="O4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -20422,7 +20434,13 @@
         <v>218</v>
       </c>
       <c r="N7" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="O7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -20467,7 +20485,13 @@
         <v>218</v>
       </c>
       <c r="N8" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="O8" t="s">
+        <v>219</v>
+      </c>
+      <c r="P8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -20512,7 +20536,13 @@
         <v>218</v>
       </c>
       <c r="N9" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="O9" t="s">
+        <v>219</v>
+      </c>
+      <c r="P9" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -20557,10 +20587,13 @@
         <v>218</v>
       </c>
       <c r="N10" t="s">
-        <v>229</v>
-      </c>
-      <c r="R10" t="s">
-        <v>223</v>
+        <v>228</v>
+      </c>
+      <c r="O10" t="s">
+        <v>219</v>
+      </c>
+      <c r="P10" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -20671,7 +20704,13 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>227</v>
+        <v>230</v>
+      </c>
+      <c r="M13" t="s">
+        <v>226</v>
+      </c>
+      <c r="N13" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -20710,7 +20749,13 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" t="s">
         <v>222</v>
+      </c>
+      <c r="N14" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -20748,6 +20793,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="L15" t="s">
+        <v>230</v>
+      </c>
+      <c r="M15" t="s">
+        <v>233</v>
+      </c>
+      <c r="N15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -20784,8 +20838,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>230</v>
+      </c>
+      <c r="M16" t="s">
+        <v>233</v>
+      </c>
+      <c r="N16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43799</v>
       </c>
@@ -20820,8 +20883,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" t="s">
+        <v>233</v>
+      </c>
+      <c r="N17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43809</v>
       </c>
@@ -20857,7 +20929,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43810</v>
       </c>
@@ -20893,7 +20965,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43811</v>
       </c>
@@ -20938,10 +21010,16 @@
         <v>225</v>
       </c>
       <c r="O20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="P20" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43812</v>
       </c>
@@ -20983,13 +21061,19 @@
         <v>218</v>
       </c>
       <c r="N21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="P21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43813</v>
       </c>
@@ -21031,10 +21115,22 @@
         <v>218</v>
       </c>
       <c r="N22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="O22" t="s">
+        <v>230</v>
+      </c>
+      <c r="P22" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>232</v>
+      </c>
+      <c r="R22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43814</v>
       </c>
@@ -21076,10 +21172,22 @@
         <v>218</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s">
+        <v>230</v>
+      </c>
+      <c r="P23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>232</v>
+      </c>
+      <c r="R23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43815</v>
       </c>
@@ -21121,10 +21229,16 @@
         <v>218</v>
       </c>
       <c r="N24" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
+        <v>230</v>
+      </c>
+      <c r="P24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43816</v>
       </c>
@@ -21160,7 +21274,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43822</v>
       </c>
@@ -21196,7 +21310,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43823</v>
       </c>
@@ -21232,7 +21346,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43824</v>
       </c>
@@ -21267,14 +21381,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L28" t="s">
-        <v>218</v>
-      </c>
-      <c r="M28" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43825</v>
       </c>
@@ -21316,10 +21424,16 @@
         <v>218</v>
       </c>
       <c r="N29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>230</v>
+      </c>
+      <c r="P29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43826</v>
       </c>
@@ -21361,10 +21475,16 @@
         <v>218</v>
       </c>
       <c r="N30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="O30" t="s">
+        <v>230</v>
+      </c>
+      <c r="P30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43827</v>
       </c>
@@ -21406,10 +21526,19 @@
         <v>218</v>
       </c>
       <c r="N31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="O31" t="s">
+        <v>230</v>
+      </c>
+      <c r="P31" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43828</v>
       </c>
@@ -21451,10 +21580,19 @@
         <v>218</v>
       </c>
       <c r="N32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="O32" t="s">
+        <v>230</v>
+      </c>
+      <c r="P32" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43829</v>
       </c>
@@ -21490,7 +21628,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43837</v>
       </c>
@@ -21526,7 +21664,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43838</v>
       </c>
@@ -21562,7 +21700,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43839</v>
       </c>
@@ -21604,13 +21742,19 @@
         <v>218</v>
       </c>
       <c r="N36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="P36" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43840</v>
       </c>
@@ -21652,13 +21796,19 @@
         <v>218</v>
       </c>
       <c r="N37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="P37" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43841</v>
       </c>
@@ -21700,16 +21850,25 @@
         <v>218</v>
       </c>
       <c r="N38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P38" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>234</v>
+      </c>
+      <c r="R38" t="s">
+        <v>233</v>
+      </c>
+      <c r="S38" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43842</v>
       </c>
@@ -21751,13 +21910,22 @@
         <v>218</v>
       </c>
       <c r="N39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O39" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="P39" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>234</v>
+      </c>
+      <c r="R39" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43843</v>
       </c>
@@ -21799,13 +21967,19 @@
         <v>218</v>
       </c>
       <c r="N40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O40" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="P40" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43844</v>
       </c>
@@ -21847,13 +22021,19 @@
         <v>218</v>
       </c>
       <c r="N41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O41" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="P41" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43845</v>
       </c>
@@ -21889,7 +22069,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43850</v>
       </c>
@@ -21925,7 +22105,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43851</v>
       </c>
@@ -21961,7 +22141,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43852</v>
       </c>
@@ -21997,7 +22177,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43853</v>
       </c>
@@ -22039,13 +22219,16 @@
         <v>218</v>
       </c>
       <c r="N46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O46" t="s">
+        <v>231</v>
+      </c>
+      <c r="P46" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43854</v>
       </c>
@@ -22087,10 +22270,13 @@
         <v>218</v>
       </c>
       <c r="N47" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="O47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43855</v>
       </c>
@@ -22132,10 +22318,22 @@
         <v>218</v>
       </c>
       <c r="N48" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="O48" t="s">
+        <v>231</v>
+      </c>
+      <c r="P48" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>232</v>
+      </c>
+      <c r="R48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43856</v>
       </c>
@@ -22177,10 +22375,19 @@
         <v>218</v>
       </c>
       <c r="N49" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="O49" t="s">
+        <v>231</v>
+      </c>
+      <c r="P49" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43857</v>
       </c>
@@ -22222,10 +22429,13 @@
         <v>218</v>
       </c>
       <c r="N50" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="O50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43858</v>
       </c>
@@ -22261,7 +22471,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43866</v>
       </c>
@@ -22297,7 +22507,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43867</v>
       </c>
@@ -22333,7 +22543,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43868</v>
       </c>
@@ -22369,7 +22579,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43869</v>
       </c>
@@ -22411,16 +22621,22 @@
         <v>218</v>
       </c>
       <c r="N55" t="s">
+        <v>224</v>
+      </c>
+      <c r="O55" t="s">
         <v>225</v>
       </c>
-      <c r="O55" t="s">
-        <v>226</v>
-      </c>
       <c r="P55" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>231</v>
+      </c>
+      <c r="R55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43870</v>
       </c>
@@ -22462,16 +22678,22 @@
         <v>218</v>
       </c>
       <c r="N56" t="s">
+        <v>224</v>
+      </c>
+      <c r="O56" t="s">
         <v>225</v>
       </c>
-      <c r="O56" t="s">
-        <v>226</v>
-      </c>
       <c r="P56" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>231</v>
+      </c>
+      <c r="R56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43871</v>
       </c>
@@ -22513,19 +22735,22 @@
         <v>218</v>
       </c>
       <c r="N57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O57" t="s">
         <v>225</v>
       </c>
-      <c r="O57" t="s">
-        <v>226</v>
-      </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q57" t="s">
+        <v>231</v>
+      </c>
+      <c r="R57" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43872</v>
       </c>
@@ -22567,16 +22792,19 @@
         <v>218</v>
       </c>
       <c r="N58" t="s">
+        <v>224</v>
+      </c>
+      <c r="O58" t="s">
         <v>225</v>
       </c>
-      <c r="O58" t="s">
-        <v>226</v>
-      </c>
       <c r="P58" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43873</v>
       </c>
@@ -22612,7 +22840,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43880</v>
       </c>
@@ -22648,7 +22876,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43881</v>
       </c>
@@ -22684,7 +22912,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43882</v>
       </c>
@@ -22720,7 +22948,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43883</v>
       </c>
@@ -22762,16 +22990,22 @@
         <v>218</v>
       </c>
       <c r="N63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O63" t="s">
+        <v>231</v>
+      </c>
+      <c r="P63" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>230</v>
+      </c>
+      <c r="R63" t="s">
         <v>221</v>
       </c>
-      <c r="P63" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43884</v>
       </c>
@@ -22813,13 +23047,19 @@
         <v>218</v>
       </c>
       <c r="N64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O64" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="P64" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43885</v>
       </c>
@@ -22855,7 +23095,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43896</v>
       </c>
@@ -22891,7 +23131,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43897</v>
       </c>
@@ -22927,7 +23167,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43898</v>
       </c>
@@ -22969,19 +23209,22 @@
         <v>218</v>
       </c>
       <c r="N68" t="s">
+        <v>224</v>
+      </c>
+      <c r="O68" t="s">
         <v>225</v>
       </c>
-      <c r="O68" t="s">
-        <v>226</v>
-      </c>
       <c r="P68" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>231</v>
+      </c>
+      <c r="R68" t="s">
         <v>221</v>
       </c>
-      <c r="Q68" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43899</v>
       </c>
@@ -23023,16 +23266,19 @@
         <v>218</v>
       </c>
       <c r="N69" t="s">
+        <v>224</v>
+      </c>
+      <c r="O69" t="s">
         <v>225</v>
       </c>
-      <c r="O69" t="s">
-        <v>226</v>
-      </c>
       <c r="P69" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43900</v>
       </c>
@@ -23074,16 +23320,19 @@
         <v>218</v>
       </c>
       <c r="N70" t="s">
+        <v>224</v>
+      </c>
+      <c r="O70" t="s">
         <v>225</v>
       </c>
-      <c r="O70" t="s">
-        <v>226</v>
-      </c>
       <c r="P70" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43901</v>
       </c>
@@ -23119,7 +23368,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43901</v>
       </c>
@@ -23155,7 +23404,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43902</v>
       </c>
@@ -23191,7 +23440,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43903</v>
       </c>

--- a/Oyster/transect/data/field_schedule_Sept2019_Mar2020.xlsx
+++ b/Oyster/transect/data/field_schedule_Sept2019_Mar2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="236">
   <si>
     <t>start_date</t>
   </si>
@@ -689,9 +689,6 @@
     <t>Kwan</t>
   </si>
   <si>
-    <t>Samara</t>
-  </si>
-  <si>
     <t>Nava</t>
   </si>
   <si>
@@ -701,9 +698,6 @@
     <t>Mel</t>
   </si>
   <si>
-    <t>Samantha W</t>
-  </si>
-  <si>
     <t>Emily</t>
   </si>
   <si>
@@ -725,7 +719,16 @@
     <t>Samantha H</t>
   </si>
   <si>
-    <t>(Denny)</t>
+    <t>Josh V</t>
+  </si>
+  <si>
+    <t>Carl Robinson</t>
+  </si>
+  <si>
+    <t>(Peter)</t>
+  </si>
+  <si>
+    <t>(Tyler C)</t>
   </si>
 </sst>
 </file>
@@ -868,7 +871,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1048,6 +1051,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1209,9 +1218,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -12852,7 +12864,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20099,16 +20111,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U39" sqref="U39"/>
+      <selection pane="bottomLeft" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -20212,7 +20230,7 @@
         <v>220</v>
       </c>
       <c r="P2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -20266,10 +20284,10 @@
         <v>221</v>
       </c>
       <c r="Q3" t="s">
+        <v>225</v>
+      </c>
+      <c r="R3" t="s">
         <v>227</v>
-      </c>
-      <c r="R3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -20317,7 +20335,7 @@
         <v>219</v>
       </c>
       <c r="O4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -20434,13 +20452,10 @@
         <v>218</v>
       </c>
       <c r="N7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="O7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -20485,13 +20500,10 @@
         <v>218</v>
       </c>
       <c r="N8" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="O8" t="s">
-        <v>219</v>
-      </c>
-      <c r="P8" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -20536,13 +20548,10 @@
         <v>218</v>
       </c>
       <c r="N9" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="O9" t="s">
-        <v>219</v>
-      </c>
-      <c r="P9" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -20587,13 +20596,10 @@
         <v>218</v>
       </c>
       <c r="N10" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="O10" t="s">
-        <v>219</v>
-      </c>
-      <c r="P10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -20704,13 +20710,16 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N13" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="O13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -20748,15 +20757,6 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L14" t="s">
-        <v>230</v>
-      </c>
-      <c r="M14" t="s">
-        <v>222</v>
-      </c>
-      <c r="N14" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -20793,15 +20793,6 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L15" t="s">
-        <v>230</v>
-      </c>
-      <c r="M15" t="s">
-        <v>233</v>
-      </c>
-      <c r="N15" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -20838,17 +20829,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L16" t="s">
-        <v>230</v>
-      </c>
-      <c r="M16" t="s">
-        <v>233</v>
-      </c>
-      <c r="N16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43799</v>
       </c>
@@ -20883,17 +20865,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L17" t="s">
-        <v>230</v>
-      </c>
-      <c r="M17" t="s">
-        <v>233</v>
-      </c>
-      <c r="N17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43809</v>
       </c>
@@ -20929,7 +20902,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43810</v>
       </c>
@@ -20965,7 +20938,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43811</v>
       </c>
@@ -21007,73 +20980,91 @@
         <v>218</v>
       </c>
       <c r="N20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P20" t="s">
         <v>219</v>
       </c>
       <c r="Q20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+        <v>225</v>
+      </c>
+      <c r="R20" t="s">
+        <v>223</v>
+      </c>
+      <c r="S20" t="s">
+        <v>232</v>
+      </c>
+      <c r="T20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>43812</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4">
         <v>-2.62</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>-2.35</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>195</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>192</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>98.46</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="O21" t="s">
-        <v>230</v>
-      </c>
-      <c r="P21" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43813</v>
       </c>
@@ -21115,22 +21106,22 @@
         <v>218</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P22" t="s">
         <v>219</v>
       </c>
       <c r="Q22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="R22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43814</v>
       </c>
@@ -21172,22 +21163,22 @@
         <v>218</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P23" t="s">
         <v>219</v>
       </c>
       <c r="Q23" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="R23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43815</v>
       </c>
@@ -21229,16 +21220,22 @@
         <v>218</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P24" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>225</v>
+      </c>
+      <c r="R24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43816</v>
       </c>
@@ -21274,7 +21271,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43822</v>
       </c>
@@ -21310,7 +21307,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43823</v>
       </c>
@@ -21346,7 +21343,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43824</v>
       </c>
@@ -21382,7 +21379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43825</v>
       </c>
@@ -21424,16 +21421,13 @@
         <v>218</v>
       </c>
       <c r="N29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O29" t="s">
-        <v>230</v>
-      </c>
-      <c r="P29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43826</v>
       </c>
@@ -21475,16 +21469,16 @@
         <v>218</v>
       </c>
       <c r="N30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43827</v>
       </c>
@@ -21526,19 +21520,19 @@
         <v>218</v>
       </c>
       <c r="N31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P31" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="Q31" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43828</v>
       </c>
@@ -21580,15 +21574,12 @@
         <v>218</v>
       </c>
       <c r="N32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P32" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q32" t="s">
         <v>219</v>
       </c>
     </row>
@@ -21735,24 +21726,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N36" t="s">
-        <v>224</v>
-      </c>
-      <c r="O36" t="s">
-        <v>227</v>
-      </c>
-      <c r="P36" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="N36" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R36" s="2" t="s">
         <v>234</v>
       </c>
+      <c r="S36" s="2"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -21789,24 +21784,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N37" t="s">
-        <v>224</v>
-      </c>
-      <c r="O37" t="s">
-        <v>227</v>
-      </c>
-      <c r="P37" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>234</v>
-      </c>
+      <c r="N37" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -21843,28 +21840,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N38" t="s">
-        <v>224</v>
-      </c>
-      <c r="O38" t="s">
-        <v>227</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="N38" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R38" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="Q38" t="s">
-        <v>234</v>
-      </c>
-      <c r="R38" t="s">
-        <v>233</v>
-      </c>
-      <c r="S38" t="s">
+      <c r="S38" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -21903,27 +21900,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N39" t="s">
-        <v>224</v>
-      </c>
-      <c r="O39" t="s">
-        <v>227</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="N39" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R39" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="Q39" t="s">
-        <v>234</v>
-      </c>
-      <c r="R39" t="s">
-        <v>233</v>
-      </c>
+      <c r="S39" s="2"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -21960,24 +21958,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N40" t="s">
-        <v>224</v>
-      </c>
-      <c r="O40" t="s">
-        <v>227</v>
-      </c>
-      <c r="P40" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>234</v>
-      </c>
+      <c r="N40" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -22014,24 +22014,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N41" t="s">
-        <v>224</v>
-      </c>
-      <c r="O41" t="s">
-        <v>227</v>
-      </c>
-      <c r="P41" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>234</v>
-      </c>
+      <c r="N41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -22219,10 +22221,10 @@
         <v>218</v>
       </c>
       <c r="N46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P46" t="s">
         <v>221</v>
@@ -22270,10 +22272,10 @@
         <v>218</v>
       </c>
       <c r="N47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -22318,19 +22320,19 @@
         <v>218</v>
       </c>
       <c r="N48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O48" t="s">
+        <v>229</v>
+      </c>
+      <c r="P48" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>230</v>
+      </c>
+      <c r="R48" t="s">
         <v>231</v>
-      </c>
-      <c r="P48" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>232</v>
-      </c>
-      <c r="R48" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -22375,16 +22377,16 @@
         <v>218</v>
       </c>
       <c r="N49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O49" t="s">
+        <v>229</v>
+      </c>
+      <c r="P49" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q49" t="s">
         <v>231</v>
-      </c>
-      <c r="P49" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -22429,10 +22431,10 @@
         <v>218</v>
       </c>
       <c r="N50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -22621,19 +22623,19 @@
         <v>218</v>
       </c>
       <c r="N55" t="s">
+        <v>223</v>
+      </c>
+      <c r="O55" t="s">
         <v>224</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>225</v>
       </c>
-      <c r="P55" t="s">
-        <v>227</v>
-      </c>
       <c r="Q55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -22678,19 +22680,19 @@
         <v>218</v>
       </c>
       <c r="N56" t="s">
+        <v>223</v>
+      </c>
+      <c r="O56" t="s">
         <v>224</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>225</v>
       </c>
-      <c r="P56" t="s">
-        <v>227</v>
-      </c>
       <c r="Q56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -22735,16 +22737,16 @@
         <v>218</v>
       </c>
       <c r="N57" t="s">
+        <v>223</v>
+      </c>
+      <c r="O57" t="s">
         <v>224</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>225</v>
       </c>
-      <c r="P57" t="s">
-        <v>227</v>
-      </c>
       <c r="Q57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R57" t="s">
         <v>221</v>
@@ -22792,16 +22794,16 @@
         <v>218</v>
       </c>
       <c r="N58" t="s">
+        <v>223</v>
+      </c>
+      <c r="O58" t="s">
         <v>224</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>225</v>
       </c>
-      <c r="P58" t="s">
-        <v>227</v>
-      </c>
       <c r="Q58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -22990,16 +22992,16 @@
         <v>218</v>
       </c>
       <c r="N63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O63" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P63" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q63" t="s">
         <v>228</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>230</v>
       </c>
       <c r="R63" t="s">
         <v>221</v>
@@ -23047,16 +23049,16 @@
         <v>218</v>
       </c>
       <c r="N64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O64" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P64" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q64" t="s">
         <v>228</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -23209,16 +23211,16 @@
         <v>218</v>
       </c>
       <c r="N68" t="s">
+        <v>223</v>
+      </c>
+      <c r="O68" t="s">
         <v>224</v>
       </c>
-      <c r="O68" t="s">
-        <v>225</v>
-      </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R68" t="s">
         <v>221</v>
@@ -23266,16 +23268,16 @@
         <v>218</v>
       </c>
       <c r="N69" t="s">
+        <v>223</v>
+      </c>
+      <c r="O69" t="s">
         <v>224</v>
       </c>
-      <c r="O69" t="s">
-        <v>225</v>
-      </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q69" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -23320,16 +23322,16 @@
         <v>218</v>
       </c>
       <c r="N70" t="s">
+        <v>223</v>
+      </c>
+      <c r="O70" t="s">
         <v>224</v>
       </c>
-      <c r="O70" t="s">
-        <v>225</v>
-      </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q70" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">

--- a/Oyster/transect/data/field_schedule_Sept2019_Mar2020.xlsx
+++ b/Oyster/transect/data/field_schedule_Sept2019_Mar2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="237">
   <si>
     <t>start_date</t>
   </si>
@@ -729,6 +729,9 @@
   </si>
   <si>
     <t>(Tyler C)</t>
+  </si>
+  <si>
+    <t>Camera Guy</t>
   </si>
 </sst>
 </file>
@@ -12863,7 +12866,7 @@
   <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -20114,8 +20117,8 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R28" sqref="R28"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20709,16 +20712,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="4" t="s">
         <v>233</v>
       </c>
     </row>
@@ -20992,12 +20995,9 @@
         <v>225</v>
       </c>
       <c r="R20" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="S20" t="s">
-        <v>232</v>
-      </c>
-      <c r="T20" t="s">
         <v>234</v>
       </c>
     </row>
@@ -21036,32 +21036,32 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="S21" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="T21" s="2" t="s">
+      <c r="S21" s="4" t="s">
         <v>234</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">

--- a/Oyster/transect/data/field_schedule_Sept2019_Mar2020.xlsx
+++ b/Oyster/transect/data/field_schedule_Sept2019_Mar2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2841" uniqueCount="235">
   <si>
     <t>start_date</t>
   </si>
@@ -689,9 +689,6 @@
     <t>Kwan</t>
   </si>
   <si>
-    <t>Nava</t>
-  </si>
-  <si>
     <t>Tyler R</t>
   </si>
   <si>
@@ -729,9 +726,6 @@
   </si>
   <si>
     <t>(Tyler C)</t>
-  </si>
-  <si>
-    <t>Camera Guy</t>
   </si>
 </sst>
 </file>
@@ -20114,11 +20108,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20233,7 +20227,7 @@
         <v>220</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -20287,10 +20281,10 @@
         <v>221</v>
       </c>
       <c r="Q3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -20338,7 +20332,7 @@
         <v>219</v>
       </c>
       <c r="O4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -20458,7 +20452,7 @@
         <v>219</v>
       </c>
       <c r="O7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -20506,7 +20500,7 @@
         <v>219</v>
       </c>
       <c r="O8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -20554,7 +20548,7 @@
         <v>219</v>
       </c>
       <c r="O9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -20602,7 +20596,7 @@
         <v>219</v>
       </c>
       <c r="O10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -20713,16 +20707,16 @@
         <v>1</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N13" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -20833,7 +20827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43799</v>
       </c>
@@ -20869,7 +20863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43809</v>
       </c>
@@ -20905,7 +20899,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43810</v>
       </c>
@@ -20941,7 +20935,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43811</v>
       </c>
@@ -20983,25 +20977,16 @@
         <v>218</v>
       </c>
       <c r="N20" t="s">
+        <v>227</v>
+      </c>
+      <c r="O20" t="s">
+        <v>219</v>
+      </c>
+      <c r="P20" t="s">
         <v>224</v>
       </c>
-      <c r="O20" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>225</v>
-      </c>
-      <c r="R20" t="s">
-        <v>232</v>
-      </c>
-      <c r="S20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43812</v>
       </c>
@@ -21043,28 +21028,16 @@
         <v>218</v>
       </c>
       <c r="N21" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="O21" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43813</v>
       </c>
@@ -21106,22 +21079,16 @@
         <v>218</v>
       </c>
       <c r="N22" t="s">
+        <v>227</v>
+      </c>
+      <c r="O22" t="s">
+        <v>219</v>
+      </c>
+      <c r="P22" t="s">
         <v>224</v>
       </c>
-      <c r="O22" t="s">
-        <v>228</v>
-      </c>
-      <c r="P22" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>225</v>
-      </c>
-      <c r="R22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43814</v>
       </c>
@@ -21163,22 +21130,16 @@
         <v>218</v>
       </c>
       <c r="N23" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" t="s">
+        <v>219</v>
+      </c>
+      <c r="P23" t="s">
         <v>224</v>
       </c>
-      <c r="O23" t="s">
-        <v>228</v>
-      </c>
-      <c r="P23" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>225</v>
-      </c>
-      <c r="R23" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43815</v>
       </c>
@@ -21220,22 +21181,16 @@
         <v>218</v>
       </c>
       <c r="N24" t="s">
+        <v>227</v>
+      </c>
+      <c r="O24" t="s">
+        <v>219</v>
+      </c>
+      <c r="P24" t="s">
         <v>224</v>
       </c>
-      <c r="O24" t="s">
-        <v>228</v>
-      </c>
-      <c r="P24" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>225</v>
-      </c>
-      <c r="R24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43816</v>
       </c>
@@ -21271,7 +21226,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43822</v>
       </c>
@@ -21307,7 +21262,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43823</v>
       </c>
@@ -21343,7 +21298,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43824</v>
       </c>
@@ -21379,7 +21334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43825</v>
       </c>
@@ -21421,13 +21376,13 @@
         <v>218</v>
       </c>
       <c r="N29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43826</v>
       </c>
@@ -21469,16 +21424,16 @@
         <v>218</v>
       </c>
       <c r="N30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43827</v>
       </c>
@@ -21520,19 +21475,16 @@
         <v>218</v>
       </c>
       <c r="N31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P31" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43828</v>
       </c>
@@ -21574,13 +21526,10 @@
         <v>218</v>
       </c>
       <c r="N32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O32" t="s">
-        <v>228</v>
-      </c>
-      <c r="P32" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -21733,19 +21682,19 @@
         <v>218</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q36" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R36" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="S36" s="2"/>
     </row>
@@ -21791,16 +21740,16 @@
         <v>218</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
@@ -21847,19 +21796,19 @@
         <v>218</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>221</v>
@@ -21907,19 +21856,19 @@
         <v>218</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S39" s="2"/>
     </row>
@@ -21965,16 +21914,16 @@
         <v>218</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -22021,16 +21970,16 @@
         <v>218</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -22221,10 +22170,10 @@
         <v>218</v>
       </c>
       <c r="N46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P46" t="s">
         <v>221</v>
@@ -22272,10 +22221,10 @@
         <v>218</v>
       </c>
       <c r="N47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -22320,19 +22269,19 @@
         <v>218</v>
       </c>
       <c r="N48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O48" t="s">
+        <v>228</v>
+      </c>
+      <c r="P48" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q48" t="s">
         <v>229</v>
       </c>
-      <c r="P48" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>230</v>
-      </c>
-      <c r="R48" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -22377,16 +22326,16 @@
         <v>218</v>
       </c>
       <c r="N49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -22431,10 +22380,10 @@
         <v>218</v>
       </c>
       <c r="N50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -22623,19 +22572,19 @@
         <v>218</v>
       </c>
       <c r="N55" t="s">
+        <v>222</v>
+      </c>
+      <c r="O55" t="s">
         <v>223</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>224</v>
       </c>
-      <c r="P55" t="s">
-        <v>225</v>
-      </c>
       <c r="Q55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -22680,19 +22629,19 @@
         <v>218</v>
       </c>
       <c r="N56" t="s">
+        <v>222</v>
+      </c>
+      <c r="O56" t="s">
         <v>223</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>224</v>
       </c>
-      <c r="P56" t="s">
-        <v>225</v>
-      </c>
       <c r="Q56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -22737,16 +22686,16 @@
         <v>218</v>
       </c>
       <c r="N57" t="s">
+        <v>222</v>
+      </c>
+      <c r="O57" t="s">
         <v>223</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>224</v>
       </c>
-      <c r="P57" t="s">
-        <v>225</v>
-      </c>
       <c r="Q57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R57" t="s">
         <v>221</v>
@@ -22794,16 +22743,16 @@
         <v>218</v>
       </c>
       <c r="N58" t="s">
+        <v>222</v>
+      </c>
+      <c r="O58" t="s">
         <v>223</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>224</v>
       </c>
-      <c r="P58" t="s">
-        <v>225</v>
-      </c>
       <c r="Q58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -22992,16 +22941,16 @@
         <v>218</v>
       </c>
       <c r="N63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R63" t="s">
         <v>221</v>
@@ -23049,16 +22998,16 @@
         <v>218</v>
       </c>
       <c r="N64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -23211,16 +23160,16 @@
         <v>218</v>
       </c>
       <c r="N68" t="s">
+        <v>222</v>
+      </c>
+      <c r="O68" t="s">
         <v>223</v>
       </c>
-      <c r="O68" t="s">
-        <v>224</v>
-      </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R68" t="s">
         <v>221</v>
@@ -23268,16 +23217,16 @@
         <v>218</v>
       </c>
       <c r="N69" t="s">
+        <v>222</v>
+      </c>
+      <c r="O69" t="s">
         <v>223</v>
       </c>
-      <c r="O69" t="s">
-        <v>224</v>
-      </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -23322,16 +23271,16 @@
         <v>218</v>
       </c>
       <c r="N70" t="s">
+        <v>222</v>
+      </c>
+      <c r="O70" t="s">
         <v>223</v>
       </c>
-      <c r="O70" t="s">
-        <v>224</v>
-      </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">

--- a/Oyster/transect/data/field_schedule_Sept2019_Mar2020.xlsx
+++ b/Oyster/transect/data/field_schedule_Sept2019_Mar2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2841" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="238">
   <si>
     <t>start_date</t>
   </si>
@@ -726,6 +726,15 @@
   </si>
   <si>
     <t>(Tyler C)</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>(Annalee)</t>
+  </si>
+  <si>
+    <t>(Rod)</t>
   </si>
 </sst>
 </file>
@@ -20111,8 +20120,8 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21693,9 +21702,7 @@
       <c r="Q36" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -21751,7 +21758,9 @@
       <c r="Q37" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="R37" s="2"/>
+      <c r="R37" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -21807,12 +21816,8 @@
       <c r="Q38" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -21867,9 +21872,7 @@
       <c r="Q39" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="R39" s="2"/>
       <c r="S39" s="2"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -21920,12 +21923,14 @@
         <v>224</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="R40" s="2"/>
+      <c r="R40" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">

--- a/Oyster/transect/data/field_schedule_Sept2019_Mar2020.xlsx
+++ b/Oyster/transect/data/field_schedule_Sept2019_Mar2020.xlsx
@@ -12869,7 +12869,7 @@
   <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -20120,8 +20120,8 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
